--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA  DEL ESTADO DE RESULTADOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA  DEL ESTADO DE RESULTADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F633647-6254-40AE-8F10-C414C22388E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C569CA-D388-4031-91D1-0DE46D9CF620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>(Cifras expresadas en quetzales)</t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>CEDULA CENTRALIZADORA ESTADO DE RESULTADOS</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -986,7 +986,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="3"/>
@@ -999,7 +999,7 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -1013,7 +1013,7 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
